--- a/xlsx/FR/willing_FR.xlsx
+++ b/xlsx/FR/willing_FR.xlsx
@@ -12,30 +12,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Sample: non-weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample: weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4</t>
+    <t xml:space="preserve">Limit driving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limit beef consumption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limit heating or cooling your home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have a fuel-efficient or an electric vehicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limit flying</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not at all</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A little</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moderately</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A lot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A great deal</t>
   </si>
 </sst>
 </file>
@@ -380,61 +389,111 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.227501397428731</v>
+        <v>0.185951218631305</v>
       </c>
       <c r="C2" t="n">
-        <v>0.204944555347326</v>
+        <v>0.170585227795779</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2034</v>
+        <v>0.0991615642085133</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.182173004791429</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0964591071172778</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.277808831749581</v>
+        <v>0.261349188777243</v>
       </c>
       <c r="C3" t="n">
-        <v>0.244554338774632</v>
+        <v>0.239348917849606</v>
       </c>
       <c r="D3" t="n">
-        <v>0.239</v>
+        <v>0.251306866801705</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.176286017663371</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.163978206911379</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279485746226942</v>
+        <v>0.268235896234203</v>
       </c>
       <c r="C4" t="n">
-        <v>0.248694436345023</v>
+        <v>0.230079282661998</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2439</v>
+        <v>0.276360766045218</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.213662408806238</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.192168277437274</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.215204024594746</v>
+        <v>0.120754960234162</v>
       </c>
       <c r="C5" t="n">
-        <v>0.301806669533019</v>
+        <v>0.159393312496643</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3137</v>
+        <v>0.192969807356663</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.191481188814976</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.165074350896334</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.163708736123088</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.200593259195974</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.180200995587901</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.236397379923986</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.382320057637735</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/FR/willing_FR.xlsx
+++ b/xlsx/FR/willing_FR.xlsx
@@ -401,19 +401,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.185951218631305</v>
+        <v>0.173962440282811</v>
       </c>
       <c r="C2" t="n">
-        <v>0.170585227795779</v>
+        <v>0.172616116828164</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0991615642085133</v>
+        <v>0.103313373387372</v>
       </c>
       <c r="E2" t="n">
-        <v>0.182173004791429</v>
+        <v>0.167064810530113</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0964591071172778</v>
+        <v>0.0935278572199083</v>
       </c>
     </row>
     <row r="3">
@@ -421,19 +421,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.261349188777243</v>
+        <v>0.218284994381587</v>
       </c>
       <c r="C3" t="n">
-        <v>0.239348917849606</v>
+        <v>0.219541728637937</v>
       </c>
       <c r="D3" t="n">
-        <v>0.251306866801705</v>
+        <v>0.251472861871819</v>
       </c>
       <c r="E3" t="n">
-        <v>0.176286017663371</v>
+        <v>0.172636299417179</v>
       </c>
       <c r="F3" t="n">
-        <v>0.163978206911379</v>
+        <v>0.156460363164702</v>
       </c>
     </row>
     <row r="4">
@@ -441,19 +441,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.268235896234203</v>
+        <v>0.287031315483927</v>
       </c>
       <c r="C4" t="n">
-        <v>0.230079282661998</v>
+        <v>0.227171132641583</v>
       </c>
       <c r="D4" t="n">
-        <v>0.276360766045218</v>
+        <v>0.252491108121371</v>
       </c>
       <c r="E4" t="n">
-        <v>0.213662408806238</v>
+        <v>0.210367862528067</v>
       </c>
       <c r="F4" t="n">
-        <v>0.192168277437274</v>
+        <v>0.183760346314067</v>
       </c>
     </row>
     <row r="5">
@@ -461,19 +461,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.120754960234162</v>
+        <v>0.155343244071694</v>
       </c>
       <c r="C5" t="n">
-        <v>0.159393312496643</v>
+        <v>0.182391013118485</v>
       </c>
       <c r="D5" t="n">
-        <v>0.192969807356663</v>
+        <v>0.205849587452534</v>
       </c>
       <c r="E5" t="n">
-        <v>0.191481188814976</v>
+        <v>0.214809908236596</v>
       </c>
       <c r="F5" t="n">
-        <v>0.165074350896334</v>
+        <v>0.168346620851565</v>
       </c>
     </row>
     <row r="6">
@@ -481,19 +481,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.163708736123088</v>
+        <v>0.165378005779982</v>
       </c>
       <c r="C6" t="n">
-        <v>0.200593259195974</v>
+        <v>0.19828000877383</v>
       </c>
       <c r="D6" t="n">
-        <v>0.180200995587901</v>
+        <v>0.186873069166903</v>
       </c>
       <c r="E6" t="n">
-        <v>0.236397379923986</v>
+        <v>0.235121119288044</v>
       </c>
       <c r="F6" t="n">
-        <v>0.382320057637735</v>
+        <v>0.397904812449758</v>
       </c>
     </row>
   </sheetData>
